--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97A64578-5768-40F7-A901-C1BC5EF06451}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E257C739-670A-4845-BE18-9C1FE792C308}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -65,19 +65,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟悉需求文档，分析普通用户群组管理并画出UML图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户个人信息管理并画出UML图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户好友管理并画出UML图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户登录注册功能并画出流程图</t>
+    <t>熟悉需求文档，分析普通用户个人信息管理并画出用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析普通用户好友管理并画出用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封群、封号、解封群、解封号、修改密码、广播系统消息、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析群主功能并画出用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析管理员功能并画出用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求文档，分析普通用户群组管理用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -524,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -544,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -554,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -564,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -648,6 +663,16 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E257C739-670A-4845-BE18-9C1FE792C308}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECADF3EC-6167-4E34-ACA5-81725FB928E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管理员功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封群、封号、解封群、解封号、修改密码、广播系统消息、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>熟悉需求文档，分析群主功能并画出用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,6 +82,10 @@
   </si>
   <si>
     <t>熟悉需求文档，分析普通用户群组管理用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -185,14 +181,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +497,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -513,12 +509,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -539,9 +535,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,7 +549,9 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,9 +559,11 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,9 +571,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,30 +585,32 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -651,28 +657,24 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECADF3EC-6167-4E34-ACA5-81725FB928E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F14ABD2-8D26-4C27-925A-92AF7AC1FBB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -82,6 +82,46 @@
   </si>
   <si>
     <t>熟悉需求文档，分析普通用户群组管理用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱志鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄立根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄俊贤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李达波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">修改完善普通用户群组管理用例图，合并用例图                </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善普通用户好友管理用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善普通用户个人信息管理用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善普通用户群管理员用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善管理员用例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -497,15 +537,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="102.21875" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,33 +667,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F14ABD2-8D26-4C27-925A-92AF7AC1FBB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823EF83-A262-40F3-9212-00D9A16581B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -126,6 +126,50 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成个人信息管理用例分析（包含修改昵称、修改联系地址、修改头像、修改密码和个人信息主界面）               </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成用户登陆、注册、找回密码用例分析和设计app主界面               </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成管理员封号、解封号、封群、解封群用例分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成增加好友、同意好友申请、删除好友用例分析和好友管理主界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成查询好友（昵称查询、电话号码查询）、好友备注、修改分组用例分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常永伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集其他组员所需的图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,27 +581,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -631,59 +678,53 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -692,10 +733,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -704,10 +745,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -716,10 +757,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -727,31 +768,150 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D30"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A18:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823EF83-A262-40F3-9212-00D9A16581B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418C137-E8CB-4B66-A246-C131080B8A3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊啊啊啊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -903,6 +910,11 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418C137-E8CB-4B66-A246-C131080B8A3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89081EE-C917-41CB-BEDD-3DFD55621166}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊啊啊啊啊啊啊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,14 +271,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -603,12 +599,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -685,18 +681,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -705,12 +701,12 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -787,29 +783,29 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -898,23 +894,21 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89081EE-C917-41CB-BEDD-3DFD55621166}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86F3834-2FAE-4CD0-B2EC-F64AD7EB3E4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,26 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">初步设计完成个人信息管理用例分析（包含修改昵称、修改联系地址、修改头像、修改密码和个人信息主界面）               </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">初步设计完成用户登陆、注册、找回密码用例分析和设计app主界面               </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步设计完成管理员封号、解封号、封群、解封群用例分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步设计完成增加好友、同意好友申请、删除好友用例分析和好友管理主界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步设计完成查询好友（昵称查询、电话号码查询）、好友备注、修改分组用例分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>常永伟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,7 +149,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
+    <t>未完成（90%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成个人信息管理、个人信息修改、找回密码、注册的用例分析和界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成APP端用户登陆、群聊创建的用例分析和界面设计          </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成网页端的好友添加、创建群主、查询用户界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成网页端的登陆、注册、个人信息管理的用例分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成网页端的登陆、注册、主页面、个人信息管理的界面设计             </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -826,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -838,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -850,10 +850,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -862,22 +862,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2"/>
     </row>

--- a/第05组/项目计划表.xlsx
+++ b/第05组/项目计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86F3834-2FAE-4CD0-B2EC-F64AD7EB3E4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9939A577-91D3-467C-9B5A-DD5BA0F04769}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -170,6 +170,54 @@
   </si>
   <si>
     <t xml:space="preserve">初步设计完成网页端的登陆、注册、主页面、个人信息管理的界面设计             </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成APP端群聊管理（创建群、加入群、查询群）用例分析和主界面设计          </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成（70%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新修改已做好的PC端用例分析并且初步设计完成群聊管理得各项用例分析         </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新修改已做好的PC端用例分析并且与立根一起初步设计完成群聊管理的各项用例分析        </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新修改已做好的PC端用例分析并且完成PC端个人信息管理用例分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成好友管理（添加好友、删除好友、好友聊天）的用例分析以及界面分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初步设计完成APP端群聊管理剩余部分的用例分析及重新整合用例分析文档        </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成PC端管理员的用例分析        </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成er图和表设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计完成APP端群主管理的用例分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +257,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -252,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -910,8 +970,204 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D50"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A1:D1"/>
